--- a/TestData/TestDataSheet.xlsx
+++ b/TestData/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Workspace\SDET_POM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2731CBCF-61B7-4A1C-B61E-04418D72E57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7164D45B-E29A-4F09-9396-A77F90FA4284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{E3A76C87-A4B0-4CCA-95A5-FE5A43A461C5}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Selenium@123</t>
   </si>
   <si>
-    <t>Dummy</t>
-  </si>
-  <si>
     <t>9987870509</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Rudrappa@454</t>
+  </si>
+  <si>
+    <t>manikandan.rudrappa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -403,12 +403,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -430,15 +430,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
